--- a/Manuscript_Code/metadata_tables/Cosmos_GO_functions.xlsx
+++ b/Manuscript_Code/metadata_tables/Cosmos_GO_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3a411a534fea73/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="8_{420F495B-2078-0C43-9FC9-3EF3841A506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF891823-5DF5-974E-A629-B78A6D2E7DC1}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="8_{420F495B-2078-0C43-9FC9-3EF3841A506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E300E2B-C8E6-2F44-8F8F-5ADF3E6A605C}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="29960" windowHeight="20460" xr2:uid="{AB90FA4A-BACC-4746-90CD-3DDB4339BE08}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29960" windowHeight="20460" xr2:uid="{AB90FA4A-BACC-4746-90CD-3DDB4339BE08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="225">
   <si>
     <t>Process</t>
   </si>
@@ -242,9 +242,6 @@
     <t>methanogenesis</t>
   </si>
   <si>
-    <t>methanogenesis, from carbon dioxide</t>
-  </si>
-  <si>
     <t>sulfate reduction</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>Methanogenesis all forms</t>
   </si>
   <si>
-    <t>Methanogenesis carbon dioxide</t>
-  </si>
-  <si>
     <t>de novo' AMP biosynthetic process</t>
   </si>
   <si>
@@ -635,9 +629,6 @@
     <t>Thiazole biosynthesis pfam</t>
   </si>
   <si>
-    <t>Phosphomethylpyrimidine kinase</t>
-  </si>
-  <si>
     <t>Response to antibiotic</t>
   </si>
   <si>
@@ -705,6 +696,21 @@
   </si>
   <si>
     <t>Electron_Transfer</t>
+  </si>
+  <si>
+    <t>thiD</t>
+  </si>
+  <si>
+    <t>thiC</t>
+  </si>
+  <si>
+    <t>thiE</t>
+  </si>
+  <si>
+    <t>tenA</t>
+  </si>
+  <si>
+    <t>HMP biosynthesis pfam, thiaminase II, tenA</t>
   </si>
 </sst>
 </file>
@@ -773,10 +779,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E4CA9F-451B-AF43-B3B4-FE58DE22D2EE}">
   <dimension ref="A1:AD108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,10 +1117,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1126,16 +1128,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1143,13 +1145,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E61" si="0">B3&amp;", "&amp;D3</f>
@@ -1161,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -1179,13 +1181,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -1197,13 +1199,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -1215,13 +1217,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -1233,13 +1235,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -1251,13 +1253,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -1269,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -1287,13 +1289,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -1305,13 +1307,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -1323,13 +1325,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -1341,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -1359,13 +1361,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -1377,13 +1379,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -1395,13 +1397,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -1413,13 +1415,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -1431,13 +1433,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -1449,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -1467,13 +1469,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -1485,13 +1487,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -1503,13 +1505,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -1521,13 +1523,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -1539,13 +1541,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -1557,13 +1559,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -1575,13 +1577,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -1593,13 +1595,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -1611,13 +1613,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -1629,13 +1631,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -1644,16 +1646,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -1662,16 +1664,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -1680,16 +1682,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -1698,16 +1700,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -1716,16 +1718,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1734,16 +1736,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -1752,16 +1754,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1770,16 +1772,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1788,16 +1790,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -1806,16 +1808,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -1824,16 +1826,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -1842,16 +1844,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -1860,16 +1862,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -1878,16 +1880,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -1896,16 +1898,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -1914,16 +1916,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -1932,16 +1934,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -1950,16 +1952,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -1968,16 +1970,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -1986,16 +1988,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -2004,16 +2006,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -2022,16 +2024,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -2040,16 +2042,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -2058,16 +2060,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -2076,16 +2078,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -2094,16 +2096,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -2112,16 +2114,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -2133,16 +2135,16 @@
         <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2150,13 +2152,13 @@
         <v>62</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -2168,13 +2170,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -2186,13 +2188,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -2204,16 +2206,16 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,7 +2232,7 @@
         <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,7 +2257,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>70</v>
@@ -2263,8 +2265,9 @@
       <c r="D65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E65" t="s">
-        <v>152</v>
+      <c r="E65" t="str">
+        <f t="shared" ref="E65:E85" si="1">B65&amp;", "&amp;D65</f>
+        <v>Respiration, Aerobic respiration</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2272,7 +2275,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>71</v>
@@ -2280,9 +2283,8 @@
       <c r="D66" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" ref="E66:E86" si="1">B66&amp;", "&amp;D66</f>
-        <v>Respiration, Aerobic respiration</v>
+      <c r="E66" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2304,13 +2306,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>155</v>
@@ -2321,41 +2323,41 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="E70" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>157</v>
@@ -2372,7 +2374,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>158</v>
@@ -2389,16 +2391,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="E73" t="s">
         <v>159</v>
@@ -2406,45 +2408,46 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" t="s">
         <v>160</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>Electron Transfer, Cytochrome-C oxidase</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>161</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>Electron Transfer, Cytochrome-C oxidase</v>
+        <v>Electron Transfer, Ferredoxin-NAD+ reductase</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>81</v>
@@ -2454,105 +2457,105 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>Electron Transfer, Ferredoxin-NAD+ reductase</v>
+        <v>Electron Transfer, Ferredoxin-NADP+ reductase</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>Electron Transfer, Ferredoxin-NADP+ reductase</v>
+        <v>Electron Transfer, Flavoprotein dehydrogenase</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v>Electron Transfer, Flavoprotein dehydrogenase</v>
+        <f>B78&amp;", "&amp;D78</f>
+        <v xml:space="preserve">Electron Transfer, Oxidoreductase activity </v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="E79" t="str">
-        <f>B79&amp;", "&amp;D79</f>
-        <v xml:space="preserve">Electron Transfer, Oxidoreductase activity </v>
+        <f t="shared" si="1"/>
+        <v>TPP Enzyme, Acetolactate synthase</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
         <v>165</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>TPP Enzyme, Acetolactate synthase</v>
+        <v>TPP Enzyme, 1-deoxy-D-xylulose-5-phosphate synthase</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>TPP Enzyme, 1-deoxy-D-xylulose-5-phosphate synthase</v>
+        <v>TPP Enzyme, Oxoglutarate dehydrogenase</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>89</v>
@@ -2562,15 +2565,15 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>TPP Enzyme, Oxoglutarate dehydrogenase</v>
+        <v xml:space="preserve">TPP Enzyme, Phosphoketolase </v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>90</v>
@@ -2580,15 +2583,15 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">TPP Enzyme, Phosphoketolase </v>
+        <v>TPP Enzyme, Pyruvate dehydrogenase</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>91</v>
@@ -2598,15 +2601,15 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>TPP Enzyme, Pyruvate dehydrogenase</v>
+        <v xml:space="preserve">TPP Enzyme, Tartronate-semialdehyde synthase </v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>92</v>
@@ -2616,25 +2619,24 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">TPP Enzyme, Tartronate-semialdehyde synthase </v>
+        <v xml:space="preserve">TPP Enzyme, Transketolase </v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>84</v>
+      <c r="A86" t="s">
+        <v>3</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">TPP Enzyme, Transketolase </v>
+        <v>221</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
@@ -2642,16 +2644,16 @@
         <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
@@ -2659,34 +2661,53 @@
         <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f>C88&amp;", "&amp;D88</f>
+        <v>Thiazole biosynthesis pfam, thiF</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f>C89&amp;", "&amp;D89</f>
-        <v>Thiazole biosynthesis pfam, thiF</v>
+        <f t="shared" ref="E89:E92" si="2">C89&amp;", "&amp;D89</f>
+        <v>Thiazole biosynthesis pfam, thiS</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -2706,23 +2727,25 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" ref="E90:E92" si="2">C90&amp;", "&amp;D90</f>
-        <v>Thiazole biosynthesis pfam, thiS</v>
+        <f t="shared" si="2"/>
+        <v>Thiazole biosynthesis pfam, thiG</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -2744,23 +2767,24 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E91" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Thiazole biosynthesis pfam, thiG</v>
+        <v>HMP biosynthesis pfam, thiD</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -2789,17 +2813,16 @@
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HMP biosynthesis pfam, Phosphomethylpyrimidine kinase</v>
+        <v>223</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -2828,13 +2851,13 @@
         <v>31</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E93" s="2" t="str">
         <f>B93&amp;", "&amp;D93</f>
@@ -2862,16 +2885,16 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E94" s="2" t="str">
         <f>B94&amp;", "&amp;D94</f>
@@ -2899,16 +2922,16 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E95" s="2" t="str">
         <f t="shared" ref="E95:E97" si="3">B95&amp;", "&amp;D95</f>
@@ -2936,16 +2959,16 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E96" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2973,16 +2996,16 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E97" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3013,13 +3036,13 @@
         <v>17</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E98" s="2" t="str">
         <f>B98&amp;", "&amp;D98</f>
@@ -3042,16 +3065,16 @@
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E99" s="2" t="str">
         <f>B99&amp;", "&amp;D99</f>
@@ -3079,13 +3102,13 @@
         <v>31</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E100" s="2" t="str">
         <f>B100&amp;", "&amp;D100</f>
@@ -3110,19 +3133,19 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F101" s="2" t="str">
         <f>B101&amp;", "&amp;E101</f>
@@ -3133,19 +3156,19 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F102" s="2" t="str">
         <f t="shared" ref="F102:F103" si="4">B102&amp;", "&amp;E102</f>
@@ -3156,10 +3179,10 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>59</v>
